--- a/src/main/resources/t3.xlsx
+++ b/src/main/resources/t3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/repo/time-scheduler/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8476C80E-B59A-3E45-BAE0-B9528BDDF62C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B001B3-ABF2-144F-A84F-6EB84D36AC36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="50060" windowHeight="28340" activeTab="1" xr2:uid="{B79D25B7-5550-B540-A36A-E2C0BE443EC4}"/>
+    <workbookView xWindow="33680" yWindow="460" windowWidth="17200" windowHeight="28340" xr2:uid="{B79D25B7-5550-B540-A36A-E2C0BE443EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,8 +493,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2086,13 +2086,13 @@
       <c r="D74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H74" t="s">
@@ -2112,13 +2112,13 @@
       <c r="D75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H75" t="s">
@@ -2138,13 +2138,13 @@
       <c r="D76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H76" t="s">
@@ -2164,13 +2164,13 @@
       <c r="D77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H77" t="s">
@@ -2190,7 +2190,7 @@
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H78" t="s">
@@ -2210,7 +2210,7 @@
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H79" t="s">
@@ -2230,7 +2230,7 @@
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H80" t="s">
@@ -2250,7 +2250,7 @@
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H81" t="s">
@@ -2273,7 +2273,7 @@
       <c r="E82" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H82" t="s">
@@ -2296,7 +2296,7 @@
       <c r="E83" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H83" t="s">
@@ -2319,7 +2319,7 @@
       <c r="E84" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H84" t="s">
@@ -2342,7 +2342,7 @@
       <c r="E85" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H85" t="s">
@@ -2359,7 +2359,7 @@
       <c r="F86" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H86" t="s">
@@ -2376,7 +2376,7 @@
       <c r="F87" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H87" t="s">
@@ -2393,7 +2393,7 @@
       <c r="F88" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H88" t="s">
@@ -2410,7 +2410,7 @@
       <c r="F89" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H89" t="s">
@@ -2427,7 +2427,7 @@
       <c r="C90" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H90" t="s">
@@ -2444,7 +2444,7 @@
       <c r="C91" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H91" t="s">
@@ -2461,7 +2461,7 @@
       <c r="C92" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H92" t="s">
@@ -2478,7 +2478,7 @@
       <c r="C93" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H93" t="s">
@@ -2495,13 +2495,13 @@
       <c r="C94" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H94" t="s">
@@ -2518,13 +2518,13 @@
       <c r="C95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H95" t="s">
@@ -2541,13 +2541,13 @@
       <c r="C96" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H96" t="s">
@@ -2564,13 +2564,13 @@
       <c r="C97" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H97" t="s">
@@ -2589,7 +2589,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/t3.xlsx
+++ b/src/main/resources/t3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/repo/time-scheduler/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/repo/meeting-scheduler/target/classes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B001B3-ABF2-144F-A84F-6EB84D36AC36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867E3CEC-F3AB-784F-B9A0-E89314E92BCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33680" yWindow="460" windowWidth="17200" windowHeight="28340" xr2:uid="{B79D25B7-5550-B540-A36A-E2C0BE443EC4}"/>
   </bookViews>
@@ -146,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +156,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -172,10 +178,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,36 +500,36 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="6" width="14.1640625" customWidth="1"/>
+    <col min="2" max="5" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -532,20 +539,20 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -558,20 +565,20 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -584,20 +591,20 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
@@ -610,20 +617,20 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -1465,13 +1472,13 @@
       <c r="A38" s="1">
         <v>0.375</v>
       </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
         <v>16</v>
       </c>
       <c r="H38" t="s">
@@ -1482,13 +1489,13 @@
       <c r="A39" s="1">
         <v>0.38541666666666702</v>
       </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
         <v>16</v>
       </c>
       <c r="H39" t="s">
@@ -1499,13 +1506,13 @@
       <c r="A40" s="1">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
         <v>16</v>
       </c>
       <c r="H40" t="s">
@@ -1516,13 +1523,13 @@
       <c r="A41" s="1">
         <v>0.40625</v>
       </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
         <v>16</v>
       </c>
       <c r="H41" t="s">
@@ -1533,7 +1540,7 @@
       <c r="A42" s="1">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B42" t="s">
+      <c r="G42" t="s">
         <v>16</v>
       </c>
       <c r="H42" t="s">
@@ -1544,7 +1551,7 @@
       <c r="A43" s="1">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B43" t="s">
+      <c r="G43" t="s">
         <v>16</v>
       </c>
       <c r="H43" t="s">
@@ -1555,7 +1562,7 @@
       <c r="A44" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B44" t="s">
+      <c r="G44" t="s">
         <v>16</v>
       </c>
       <c r="H44" t="s">
@@ -1566,7 +1573,7 @@
       <c r="A45" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B45" t="s">
+      <c r="G45" t="s">
         <v>16</v>
       </c>
       <c r="H45" t="s">
@@ -1577,7 +1584,7 @@
       <c r="A46" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B46" t="s">
+      <c r="G46" t="s">
         <v>16</v>
       </c>
       <c r="H46" t="s">
@@ -1588,7 +1595,7 @@
       <c r="A47" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B47" t="s">
+      <c r="G47" t="s">
         <v>16</v>
       </c>
       <c r="H47" t="s">
@@ -1599,7 +1606,7 @@
       <c r="A48" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B48" t="s">
+      <c r="G48" t="s">
         <v>16</v>
       </c>
       <c r="H48" t="s">
@@ -1610,7 +1617,7 @@
       <c r="A49" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B49" t="s">
+      <c r="G49" t="s">
         <v>16</v>
       </c>
       <c r="H49" t="s">
@@ -1829,7 +1836,7 @@
       <c r="A58" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B58" t="s">
+      <c r="G58" t="s">
         <v>16</v>
       </c>
       <c r="H58" t="s">
@@ -1840,7 +1847,7 @@
       <c r="A59" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B59" t="s">
+      <c r="G59" t="s">
         <v>16</v>
       </c>
       <c r="H59" t="s">
@@ -1851,7 +1858,7 @@
       <c r="A60" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B60" t="s">
+      <c r="G60" t="s">
         <v>16</v>
       </c>
       <c r="H60" t="s">
@@ -1862,7 +1869,7 @@
       <c r="A61" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B61" t="s">
+      <c r="G61" t="s">
         <v>16</v>
       </c>
       <c r="H61" t="s">
@@ -1876,10 +1883,10 @@
       <c r="B62" t="s">
         <v>16</v>
       </c>
-      <c r="C62" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
         <v>16</v>
       </c>
       <c r="H62" t="s">
@@ -1893,10 +1900,10 @@
       <c r="B63" t="s">
         <v>16</v>
       </c>
-      <c r="C63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
         <v>16</v>
       </c>
       <c r="H63" t="s">
@@ -1910,10 +1917,10 @@
       <c r="B64" t="s">
         <v>16</v>
       </c>
-      <c r="C64" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
         <v>16</v>
       </c>
       <c r="H64" t="s">
@@ -1927,10 +1934,10 @@
       <c r="B65" t="s">
         <v>16</v>
       </c>
-      <c r="C65" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
         <v>16</v>
       </c>
       <c r="H65" t="s">
@@ -1941,7 +1948,12 @@
       <c r="A66" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" t="s">
         <v>16</v>
       </c>
       <c r="H66" t="s">
@@ -1952,7 +1964,12 @@
       <c r="A67" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" t="s">
         <v>16</v>
       </c>
       <c r="H67" t="s">
@@ -1963,7 +1980,12 @@
       <c r="A68" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" t="s">
         <v>16</v>
       </c>
       <c r="H68" t="s">
@@ -1974,7 +1996,12 @@
       <c r="A69" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" t="s">
         <v>16</v>
       </c>
       <c r="H69" t="s">
@@ -1985,20 +2012,21 @@
       <c r="A70" s="1">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B70" t="s">
-        <v>16</v>
+      <c r="B70" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" t="s">
+        <v>16</v>
       </c>
       <c r="H70" t="s">
         <v>16</v>
@@ -2008,20 +2036,21 @@
       <c r="A71" s="1">
         <v>0.71875</v>
       </c>
-      <c r="B71" t="s">
-        <v>16</v>
+      <c r="B71" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" t="s">
+        <v>16</v>
       </c>
       <c r="H71" t="s">
         <v>16</v>
@@ -2031,20 +2060,21 @@
       <c r="A72" s="1">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B72" t="s">
-        <v>16</v>
+      <c r="B72" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" t="s">
+        <v>16</v>
       </c>
       <c r="H72" t="s">
         <v>16</v>
@@ -2054,20 +2084,21 @@
       <c r="A73" s="1">
         <v>0.73958333333333304</v>
       </c>
-      <c r="B73" t="s">
-        <v>16</v>
+      <c r="B73" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" t="s">
+        <v>16</v>
       </c>
       <c r="H73" t="s">
         <v>16</v>
@@ -2077,22 +2108,22 @@
       <c r="A74" s="1">
         <v>0.75</v>
       </c>
-      <c r="B74" t="s">
-        <v>16</v>
+      <c r="B74" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
         <v>16</v>
       </c>
       <c r="H74" t="s">
@@ -2103,22 +2134,22 @@
       <c r="A75" s="1">
         <v>0.76041666666666696</v>
       </c>
-      <c r="B75" t="s">
-        <v>16</v>
+      <c r="B75" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
         <v>16</v>
       </c>
       <c r="H75" t="s">
@@ -2129,22 +2160,22 @@
       <c r="A76" s="1">
         <v>0.77083333333333304</v>
       </c>
-      <c r="B76" t="s">
-        <v>16</v>
+      <c r="B76" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
         <v>16</v>
       </c>
       <c r="H76" t="s">
@@ -2155,22 +2186,22 @@
       <c r="A77" s="1">
         <v>0.78125</v>
       </c>
-      <c r="B77" t="s">
-        <v>16</v>
+      <c r="B77" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
         <v>16</v>
       </c>
       <c r="H77" t="s">
@@ -2181,16 +2212,17 @@
       <c r="A78" s="1">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B78" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="B78" s="3"/>
+      <c r="C78" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E78" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
         <v>16</v>
       </c>
       <c r="H78" t="s">
@@ -2201,16 +2233,17 @@
       <c r="A79" s="1">
         <v>0.80208333333333304</v>
       </c>
-      <c r="B79" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="B79" s="3"/>
+      <c r="C79" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E79" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
         <v>16</v>
       </c>
       <c r="H79" t="s">
@@ -2221,16 +2254,17 @@
       <c r="A80" s="1">
         <v>0.8125</v>
       </c>
-      <c r="B80" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="B80" s="3"/>
+      <c r="C80" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E80" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
         <v>16</v>
       </c>
       <c r="H80" t="s">
@@ -2241,16 +2275,17 @@
       <c r="A81" s="1">
         <v>0.82291666666666696</v>
       </c>
-      <c r="B81" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="B81" s="3"/>
+      <c r="C81" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E81" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
         <v>16</v>
       </c>
       <c r="H81" t="s">
@@ -2261,19 +2296,20 @@
       <c r="A82" s="1">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B82" t="s">
-        <v>16</v>
+      <c r="B82" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="E82" s="3"/>
+      <c r="F82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
         <v>16</v>
       </c>
       <c r="H82" t="s">
@@ -2284,19 +2320,20 @@
       <c r="A83" s="1">
         <v>0.84375</v>
       </c>
-      <c r="B83" t="s">
-        <v>16</v>
+      <c r="B83" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="E83" s="3"/>
+      <c r="F83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
         <v>16</v>
       </c>
       <c r="H83" t="s">
@@ -2307,19 +2344,20 @@
       <c r="A84" s="1">
         <v>0.85416666666666696</v>
       </c>
-      <c r="B84" t="s">
-        <v>16</v>
+      <c r="B84" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="E84" s="3"/>
+      <c r="F84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
         <v>16</v>
       </c>
       <c r="H84" t="s">
@@ -2330,19 +2368,20 @@
       <c r="A85" s="1">
         <v>0.86458333333333304</v>
       </c>
-      <c r="B85" t="s">
-        <v>16</v>
+      <c r="B85" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="E85" s="3"/>
+      <c r="F85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
         <v>16</v>
       </c>
       <c r="H85" t="s">
@@ -2353,13 +2392,16 @@
       <c r="A86" s="1">
         <v>0.875</v>
       </c>
-      <c r="B86" t="s">
-        <v>16</v>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
         <v>16</v>
       </c>
       <c r="H86" t="s">
@@ -2370,13 +2412,16 @@
       <c r="A87" s="1">
         <v>0.88541666666666696</v>
       </c>
-      <c r="B87" t="s">
-        <v>16</v>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
         <v>16</v>
       </c>
       <c r="H87" t="s">
@@ -2387,13 +2432,16 @@
       <c r="A88" s="1">
         <v>0.89583333333333304</v>
       </c>
-      <c r="B88" t="s">
-        <v>16</v>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
         <v>16</v>
       </c>
       <c r="H88" t="s">
@@ -2404,13 +2452,16 @@
       <c r="A89" s="1">
         <v>0.90625</v>
       </c>
-      <c r="B89" t="s">
-        <v>16</v>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
         <v>16</v>
       </c>
       <c r="H89" t="s">
@@ -2421,13 +2472,16 @@
       <c r="A90" s="1">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
         <v>16</v>
       </c>
       <c r="H90" t="s">
@@ -2438,13 +2492,16 @@
       <c r="A91" s="1">
         <v>0.92708333333333304</v>
       </c>
-      <c r="B91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
         <v>16</v>
       </c>
       <c r="H91" t="s">
@@ -2455,13 +2512,16 @@
       <c r="A92" s="1">
         <v>0.9375</v>
       </c>
-      <c r="B92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
         <v>16</v>
       </c>
       <c r="H92" t="s">
@@ -2472,13 +2532,16 @@
       <c r="A93" s="1">
         <v>0.94791666666666696</v>
       </c>
-      <c r="B93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
         <v>16</v>
       </c>
       <c r="H93" t="s">
@@ -2489,19 +2552,20 @@
       <c r="A94" s="1">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E94" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
         <v>16</v>
       </c>
       <c r="H94" t="s">
@@ -2512,19 +2576,20 @@
       <c r="A95" s="1">
         <v>0.96875</v>
       </c>
-      <c r="B95" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E95" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
         <v>16</v>
       </c>
       <c r="H95" t="s">
@@ -2535,19 +2600,20 @@
       <c r="A96" s="1">
         <v>0.97916666666666696</v>
       </c>
-      <c r="B96" t="s">
-        <v>16</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E96" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
         <v>16</v>
       </c>
       <c r="H96" t="s">
@@ -2558,19 +2624,20 @@
       <c r="A97" s="1">
         <v>0.98958333333333304</v>
       </c>
-      <c r="B97" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E97" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
         <v>16</v>
       </c>
       <c r="H97" t="s">
